--- a/data/zenodo/conversion/chp/CHE_convchp_waste.xlsx
+++ b/data/zenodo/conversion/chp/CHE_convchp_waste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0E0A2C-969D-ED46-994D-A7F77DD8C387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84AAF88-5290-7449-B556-FEADC7F16A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$853</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="78">
   <si>
     <t>Name:</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Maximum energy production per capacity unit, per year.</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -685,11 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -791,16 +794,13 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -812,13 +812,13 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -833,16 +833,16 @@
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9">
-        <v>0.141307988</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -854,16 +854,16 @@
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10">
-        <v>0.73924900000000004</v>
+        <v>0.141307988</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -875,26 +875,18 @@
         <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
       </c>
       <c r="G11">
-        <v>0.25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" t="s">
-        <v>47</v>
-      </c>
+        <v>0.73924900000000004</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -904,19 +896,25 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>31.54</v>
+        <v>0.25</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -926,25 +924,21 @@
       <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
+      <c r="C13" t="s">
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>31.54</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -954,16 +948,22 @@
         <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>8.3000000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
       </c>
       <c r="I14" t="s">
         <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -975,16 +975,13 @@
         <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I15" t="s">
         <v>45</v>
@@ -999,26 +996,21 @@
         <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>6.7247462020000004</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
         <v>45</v>
       </c>
-      <c r="J16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" t="s">
-        <v>52</v>
-      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1028,24 +1020,26 @@
         <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>6.7247462020000004</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1055,19 +1049,22 @@
         <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="G18">
-        <v>0.88</v>
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
       </c>
       <c r="I18" t="s">
         <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1079,23 +1076,21 @@
         <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="G19">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="I19" t="s">
         <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1104,29 +1099,23 @@
       <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>644</v>
-      </c>
-      <c r="H20" t="s">
-        <v>56</v>
+        <v>0.6</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1143,10 +1132,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G21">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -1175,10 +1164,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G22">
-        <v>692</v>
+        <v>623</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -1207,10 +1196,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G23">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -1239,10 +1228,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G24">
-        <v>806</v>
+        <v>711</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -1271,10 +1260,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G25">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -1303,10 +1292,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G26">
-        <v>906</v>
+        <v>833</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -1335,10 +1324,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G27">
-        <v>987</v>
+        <v>906</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -1367,10 +1356,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G28">
-        <v>1025</v>
+        <v>987</v>
       </c>
       <c r="H28" t="s">
         <v>56</v>
@@ -1399,10 +1388,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G29">
-        <v>1134</v>
+        <v>1025</v>
       </c>
       <c r="H29" t="s">
         <v>56</v>
@@ -1431,10 +1420,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G30">
-        <v>1284</v>
+        <v>1134</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -1463,10 +1452,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G31">
-        <v>1371</v>
+        <v>1284</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -1495,10 +1484,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G32">
-        <v>1426</v>
+        <v>1371</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -1527,10 +1516,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G33">
-        <v>1456</v>
+        <v>1426</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -1559,10 +1548,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G34">
-        <v>1536</v>
+        <v>1456</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -1591,10 +1580,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G35">
-        <v>1620</v>
+        <v>1536</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -1623,10 +1612,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G36">
-        <v>1824</v>
+        <v>1620</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -1655,10 +1644,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G37">
-        <v>1787</v>
+        <v>1824</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
@@ -1687,10 +1676,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G38">
-        <v>1833</v>
+        <v>1787</v>
       </c>
       <c r="H38" t="s">
         <v>56</v>
@@ -1719,10 +1708,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G39">
-        <v>1762</v>
+        <v>1833</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -1751,10 +1740,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G40">
-        <v>1849</v>
+        <v>1762</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -1783,10 +1772,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G41">
-        <v>1918</v>
+        <v>1849</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -1815,10 +1804,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G42">
-        <v>2021</v>
+        <v>1918</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -1847,10 +1836,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G43">
-        <v>2083</v>
+        <v>2021</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -1879,10 +1868,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G44">
-        <v>2200</v>
+        <v>2083</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -1911,10 +1900,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G45">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
@@ -1943,10 +1932,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G46">
-        <v>2349</v>
+        <v>2210</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
@@ -1975,7 +1964,7 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G47">
         <v>2349</v>
@@ -2007,10 +1996,10 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G48">
-        <v>2327</v>
+        <v>2349</v>
       </c>
       <c r="H48" t="s">
         <v>56</v>
@@ -2039,10 +2028,10 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G49">
-        <v>2346</v>
+        <v>2327</v>
       </c>
       <c r="H49" t="s">
         <v>56</v>
@@ -2065,19 +2054,19 @@
         <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G50">
-        <v>148</v>
+        <v>2346</v>
       </c>
       <c r="H50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I50" t="s">
         <v>45</v>
@@ -2086,7 +2075,7 @@
         <v>57</v>
       </c>
       <c r="L50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2103,10 +2092,10 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G51">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H51" t="s">
         <v>59</v>
@@ -2135,10 +2124,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G52">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H52" t="s">
         <v>59</v>
@@ -2167,10 +2156,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G53">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="H53" t="s">
         <v>59</v>
@@ -2199,10 +2188,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G54">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H54" t="s">
         <v>59</v>
@@ -2231,10 +2220,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G55">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H55" t="s">
         <v>59</v>
@@ -2263,10 +2252,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G56">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H56" t="s">
         <v>59</v>
@@ -2295,7 +2284,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G57">
         <v>242</v>
@@ -2327,10 +2316,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G58">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="H58" t="s">
         <v>59</v>
@@ -2359,10 +2348,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G59">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H59" t="s">
         <v>59</v>
@@ -2391,10 +2380,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G60">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H60" t="s">
         <v>59</v>
@@ -2423,10 +2412,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G61">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H61" t="s">
         <v>59</v>
@@ -2455,7 +2444,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G62">
         <v>284</v>
@@ -2487,10 +2476,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G63">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H63" t="s">
         <v>59</v>
@@ -2519,10 +2508,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G64">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H64" t="s">
         <v>59</v>
@@ -2551,10 +2540,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G65">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H65" t="s">
         <v>59</v>
@@ -2583,10 +2572,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G66">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="H66" t="s">
         <v>59</v>
@@ -2615,10 +2604,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G67">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H67" t="s">
         <v>59</v>
@@ -2647,10 +2636,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G68">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H68" t="s">
         <v>59</v>
@@ -2679,10 +2668,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G69">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H69" t="s">
         <v>59</v>
@@ -2711,10 +2700,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G70">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="H70" t="s">
         <v>59</v>
@@ -2743,10 +2732,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G71">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H71" t="s">
         <v>59</v>
@@ -2775,10 +2764,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G72">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="H72" t="s">
         <v>59</v>
@@ -2807,10 +2796,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G73">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H73" t="s">
         <v>59</v>
@@ -2839,10 +2828,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G74">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="H74" t="s">
         <v>59</v>
@@ -2871,10 +2860,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G75">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="H75" t="s">
         <v>59</v>
@@ -2903,10 +2892,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G76">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H76" t="s">
         <v>59</v>
@@ -2935,7 +2924,7 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G77">
         <v>423</v>
@@ -2967,7 +2956,7 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G78">
         <v>423</v>
@@ -2999,10 +2988,10 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G79">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H79" t="s">
         <v>59</v>
@@ -3025,16 +3014,16 @@
         <v>73</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="H80" t="s">
         <v>59</v>
@@ -3063,10 +3052,10 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G81">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
         <v>59</v>
@@ -3095,10 +3084,10 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H82" t="s">
         <v>59</v>
@@ -3127,10 +3116,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G83">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H83" t="s">
         <v>59</v>
@@ -3159,10 +3148,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G84">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H84" t="s">
         <v>59</v>
@@ -3191,10 +3180,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G85">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
         <v>59</v>
@@ -3223,10 +3212,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G86">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H86" t="s">
         <v>59</v>
@@ -3255,10 +3244,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H87" t="s">
         <v>59</v>
@@ -3287,10 +3276,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G88">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
         <v>59</v>
@@ -3319,10 +3308,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G89">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
         <v>59</v>
@@ -3351,10 +3340,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H90" t="s">
         <v>59</v>
@@ -3383,10 +3372,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G91">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H91" t="s">
         <v>59</v>
@@ -3415,10 +3404,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H92" t="s">
         <v>59</v>
@@ -3447,10 +3436,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G93">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
         <v>59</v>
@@ -3479,10 +3468,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G94">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H94" t="s">
         <v>59</v>
@@ -3511,10 +3500,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
         <v>59</v>
@@ -3543,10 +3532,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G96">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H96" t="s">
         <v>59</v>
@@ -3575,10 +3564,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H97" t="s">
         <v>59</v>
@@ -3607,10 +3596,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>59</v>
@@ -3639,10 +3628,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G99">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
         <v>59</v>
@@ -3671,10 +3660,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G100">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H100" t="s">
         <v>59</v>
@@ -3703,10 +3692,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
         <v>59</v>
@@ -3735,10 +3724,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G102">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>59</v>
@@ -3767,10 +3756,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="H103" t="s">
         <v>59</v>
@@ -3799,10 +3788,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H104" t="s">
         <v>59</v>
@@ -3831,10 +3820,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G105">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H105" t="s">
         <v>59</v>
@@ -3863,10 +3852,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H106" t="s">
         <v>59</v>
@@ -3895,10 +3884,10 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
         <v>59</v>
@@ -3927,7 +3916,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3959,7 +3948,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3985,13 +3974,13 @@
         <v>73</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -4023,7 +4012,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4055,7 +4044,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4087,7 +4076,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4119,7 +4108,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4151,7 +4140,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4183,7 +4172,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4215,7 +4204,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4247,7 +4236,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4279,7 +4268,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4311,7 +4300,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4343,7 +4332,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4375,7 +4364,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4407,7 +4396,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4439,7 +4428,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4471,7 +4460,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4503,7 +4492,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4535,7 +4524,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4567,10 +4556,10 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G128">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H128" t="s">
         <v>59</v>
@@ -4599,10 +4588,10 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H129" t="s">
         <v>59</v>
@@ -4631,7 +4620,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4663,10 +4652,10 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G131">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H131" t="s">
         <v>59</v>
@@ -4695,10 +4684,10 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H132" t="s">
         <v>59</v>
@@ -4727,7 +4716,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4759,10 +4748,10 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G134">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H134" t="s">
         <v>59</v>
@@ -4791,10 +4780,10 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H135" t="s">
         <v>59</v>
@@ -4823,7 +4812,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4855,7 +4844,7 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4887,7 +4876,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4919,10 +4908,10 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" t="s">
         <v>59</v>
@@ -4945,16 +4934,28 @@
         <v>73</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>59</v>
       </c>
       <c r="I140" t="s">
         <v>45</v>
+      </c>
+      <c r="J140" t="s">
+        <v>57</v>
+      </c>
+      <c r="L140" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4971,7 +4972,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I141" t="s">
         <v>45</v>
@@ -4991,7 +4992,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I142" t="s">
         <v>45</v>
@@ -5011,7 +5012,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I143" t="s">
         <v>45</v>
@@ -5031,7 +5032,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I144" t="s">
         <v>45</v>
@@ -5051,7 +5052,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I145" t="s">
         <v>45</v>
@@ -5071,7 +5072,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I146" t="s">
         <v>45</v>
@@ -5091,7 +5092,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I147" t="s">
         <v>45</v>
@@ -5111,7 +5112,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I148" t="s">
         <v>45</v>
@@ -5131,7 +5132,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I149" t="s">
         <v>45</v>
@@ -5151,7 +5152,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I150" t="s">
         <v>45</v>
@@ -5171,7 +5172,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I151" t="s">
         <v>45</v>
@@ -5191,7 +5192,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I152" t="s">
         <v>45</v>
@@ -5211,7 +5212,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I153" t="s">
         <v>45</v>
@@ -5231,7 +5232,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I154" t="s">
         <v>45</v>
@@ -5251,7 +5252,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I155" t="s">
         <v>45</v>
@@ -5271,7 +5272,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I156" t="s">
         <v>45</v>
@@ -5291,7 +5292,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I157" t="s">
         <v>45</v>
@@ -5311,7 +5312,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I158" t="s">
         <v>45</v>
@@ -5331,7 +5332,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I159" t="s">
         <v>45</v>
@@ -5351,7 +5352,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I160" t="s">
         <v>45</v>
@@ -5371,7 +5372,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I161" t="s">
         <v>45</v>
@@ -5391,7 +5392,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I162" t="s">
         <v>45</v>
@@ -5411,7 +5412,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I163" t="s">
         <v>45</v>
@@ -5431,7 +5432,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I164" t="s">
         <v>45</v>
@@ -5451,7 +5452,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I165" t="s">
         <v>45</v>
@@ -5471,7 +5472,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I166" t="s">
         <v>45</v>
@@ -5491,7 +5492,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I167" t="s">
         <v>45</v>
@@ -5511,22 +5512,10 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>2018</v>
-      </c>
-      <c r="G168">
-        <v>911</v>
-      </c>
-      <c r="H168" t="s">
-        <v>61</v>
+        <v>2017</v>
       </c>
       <c r="I168" t="s">
         <v>45</v>
-      </c>
-      <c r="J168" t="s">
-        <v>62</v>
-      </c>
-      <c r="L168" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5543,10 +5532,22 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G169">
+        <v>911</v>
+      </c>
+      <c r="H169" t="s">
+        <v>61</v>
       </c>
       <c r="I169" t="s">
         <v>45</v>
+      </c>
+      <c r="J169" t="s">
+        <v>62</v>
+      </c>
+      <c r="L169" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -5557,13 +5558,13 @@
         <v>73</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I170" t="s">
         <v>45</v>
@@ -5583,7 +5584,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I171" t="s">
         <v>45</v>
@@ -5603,7 +5604,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I172" t="s">
         <v>45</v>
@@ -5623,7 +5624,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I173" t="s">
         <v>45</v>
@@ -5643,7 +5644,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I174" t="s">
         <v>45</v>
@@ -5663,7 +5664,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I175" t="s">
         <v>45</v>
@@ -5683,7 +5684,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I176" t="s">
         <v>45</v>
@@ -5703,7 +5704,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I177" t="s">
         <v>45</v>
@@ -5723,7 +5724,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I178" t="s">
         <v>45</v>
@@ -5743,7 +5744,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I179" t="s">
         <v>45</v>
@@ -5763,7 +5764,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I180" t="s">
         <v>45</v>
@@ -5783,7 +5784,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I181" t="s">
         <v>45</v>
@@ -5803,7 +5804,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I182" t="s">
         <v>45</v>
@@ -5823,7 +5824,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I183" t="s">
         <v>45</v>
@@ -5843,7 +5844,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I184" t="s">
         <v>45</v>
@@ -5863,7 +5864,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I185" t="s">
         <v>45</v>
@@ -5883,7 +5884,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I186" t="s">
         <v>45</v>
@@ -5903,7 +5904,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I187" t="s">
         <v>45</v>
@@ -5923,7 +5924,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I188" t="s">
         <v>45</v>
@@ -5943,7 +5944,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I189" t="s">
         <v>45</v>
@@ -5963,7 +5964,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I190" t="s">
         <v>45</v>
@@ -5983,7 +5984,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I191" t="s">
         <v>45</v>
@@ -6003,7 +6004,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I192" t="s">
         <v>45</v>
@@ -6023,7 +6024,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I193" t="s">
         <v>45</v>
@@ -6043,7 +6044,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I194" t="s">
         <v>45</v>
@@ -6063,7 +6064,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I195" t="s">
         <v>45</v>
@@ -6083,7 +6084,7 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I196" t="s">
         <v>45</v>
@@ -6103,7 +6104,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I197" t="s">
         <v>45</v>
@@ -6123,22 +6124,10 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>2018</v>
-      </c>
-      <c r="G198">
-        <v>6000</v>
-      </c>
-      <c r="H198" t="s">
-        <v>61</v>
+        <v>2017</v>
       </c>
       <c r="I198" t="s">
         <v>45</v>
-      </c>
-      <c r="J198" t="s">
-        <v>62</v>
-      </c>
-      <c r="L198" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -6155,10 +6144,22 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G199">
+        <v>6000</v>
+      </c>
+      <c r="H199" t="s">
+        <v>61</v>
       </c>
       <c r="I199" t="s">
         <v>45</v>
+      </c>
+      <c r="J199" t="s">
+        <v>62</v>
+      </c>
+      <c r="L199" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -6169,13 +6170,13 @@
         <v>73</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I200" t="s">
         <v>45</v>
@@ -6195,7 +6196,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I201" t="s">
         <v>45</v>
@@ -6215,7 +6216,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I202" t="s">
         <v>45</v>
@@ -6235,7 +6236,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I203" t="s">
         <v>45</v>
@@ -6255,7 +6256,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I204" t="s">
         <v>45</v>
@@ -6275,7 +6276,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I205" t="s">
         <v>45</v>
@@ -6295,7 +6296,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I206" t="s">
         <v>45</v>
@@ -6315,7 +6316,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I207" t="s">
         <v>45</v>
@@ -6335,7 +6336,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I208" t="s">
         <v>45</v>
@@ -6355,7 +6356,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I209" t="s">
         <v>45</v>
@@ -6375,7 +6376,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I210" t="s">
         <v>45</v>
@@ -6395,7 +6396,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I211" t="s">
         <v>45</v>
@@ -6415,7 +6416,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I212" t="s">
         <v>45</v>
@@ -6435,7 +6436,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I213" t="s">
         <v>45</v>
@@ -6455,7 +6456,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I214" t="s">
         <v>45</v>
@@ -6475,7 +6476,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I215" t="s">
         <v>45</v>
@@ -6495,7 +6496,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I216" t="s">
         <v>45</v>
@@ -6515,7 +6516,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I217" t="s">
         <v>45</v>
@@ -6535,7 +6536,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I218" t="s">
         <v>45</v>
@@ -6555,7 +6556,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I219" t="s">
         <v>45</v>
@@ -6575,7 +6576,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I220" t="s">
         <v>45</v>
@@ -6595,7 +6596,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I221" t="s">
         <v>45</v>
@@ -6615,7 +6616,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I222" t="s">
         <v>45</v>
@@ -6635,7 +6636,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I223" t="s">
         <v>45</v>
@@ -6655,7 +6656,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I224" t="s">
         <v>45</v>
@@ -6675,7 +6676,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I225" t="s">
         <v>45</v>
@@ -6695,7 +6696,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I226" t="s">
         <v>45</v>
@@ -6715,22 +6716,10 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2017</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>64</v>
+        <v>2016</v>
       </c>
       <c r="I227" t="s">
         <v>45</v>
-      </c>
-      <c r="J227" t="s">
-        <v>62</v>
-      </c>
-      <c r="L227" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6747,10 +6736,22 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>2018</v>
+        <v>2017</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228" t="s">
+        <v>64</v>
       </c>
       <c r="I228" t="s">
         <v>45</v>
+      </c>
+      <c r="J228" t="s">
+        <v>62</v>
+      </c>
+      <c r="L228" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6767,7 +6768,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I229" t="s">
         <v>45</v>
@@ -6781,28 +6782,16 @@
         <v>73</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1990</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230" t="s">
-        <v>59</v>
+        <v>2019</v>
       </c>
       <c r="I230" t="s">
         <v>45</v>
-      </c>
-      <c r="J230" t="s">
-        <v>57</v>
-      </c>
-      <c r="L230" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -6819,7 +6808,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6851,7 +6840,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6883,7 +6872,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6915,7 +6904,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6947,7 +6936,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6979,7 +6968,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7011,7 +7000,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -7043,7 +7032,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7075,7 +7064,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7107,7 +7096,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7139,7 +7128,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7171,7 +7160,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7203,7 +7192,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7235,7 +7224,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7267,7 +7256,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7299,7 +7288,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7331,7 +7320,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7363,10 +7352,10 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G248">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H248" t="s">
         <v>59</v>
@@ -7395,10 +7384,10 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H249" t="s">
         <v>59</v>
@@ -7427,7 +7416,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7459,10 +7448,10 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G251">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H251" t="s">
         <v>59</v>
@@ -7491,10 +7480,10 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H252" t="s">
         <v>59</v>
@@ -7523,7 +7512,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7555,10 +7544,10 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G254">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H254" t="s">
         <v>59</v>
@@ -7587,10 +7576,10 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H255" t="s">
         <v>59</v>
@@ -7619,7 +7608,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7651,7 +7640,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7683,7 +7672,7 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -7715,10 +7704,10 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259" t="s">
         <v>59</v>
@@ -7741,19 +7730,28 @@
         <v>73</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G260">
         <v>1</v>
       </c>
+      <c r="H260" t="s">
+        <v>59</v>
+      </c>
       <c r="I260" t="s">
         <v>45</v>
+      </c>
+      <c r="J260" t="s">
+        <v>57</v>
+      </c>
+      <c r="L260" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7770,10 +7768,10 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G261">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I261" t="s">
         <v>45</v>
@@ -7793,7 +7791,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G262">
         <v>0.9</v>
@@ -7816,7 +7814,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G263">
         <v>0.9</v>
@@ -7839,7 +7837,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G264">
         <v>0.9</v>
@@ -7862,7 +7860,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G265">
         <v>0.9</v>
@@ -7885,7 +7883,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G266">
         <v>0.9</v>
@@ -7908,7 +7906,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G267">
         <v>0.9</v>
@@ -7931,7 +7929,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G268">
         <v>0.9</v>
@@ -7954,7 +7952,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G269">
         <v>0.9</v>
@@ -7977,7 +7975,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G270">
         <v>0.9</v>
@@ -8000,7 +7998,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G271">
         <v>0.9</v>
@@ -8023,7 +8021,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G272">
         <v>0.9</v>
@@ -8046,7 +8044,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G273">
         <v>0.9</v>
@@ -8069,7 +8067,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G274">
         <v>0.9</v>
@@ -8092,7 +8090,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G275">
         <v>0.9</v>
@@ -8115,7 +8113,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G276">
         <v>0.9</v>
@@ -8138,7 +8136,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G277">
         <v>0.9</v>
@@ -8161,7 +8159,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G278">
         <v>0.9</v>
@@ -8184,7 +8182,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G279">
         <v>0.9</v>
@@ -8207,7 +8205,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G280">
         <v>0.9</v>
@@ -8230,7 +8228,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G281">
         <v>0.9</v>
@@ -8253,7 +8251,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G282">
         <v>0.9</v>
@@ -8276,7 +8274,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G283">
         <v>0.9</v>
@@ -8299,7 +8297,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G284">
         <v>0.9</v>
@@ -8322,7 +8320,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G285">
         <v>0.9</v>
@@ -8330,9 +8328,6 @@
       <c r="I285" t="s">
         <v>45</v>
       </c>
-      <c r="J285" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -8348,7 +8343,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G286">
         <v>0.9</v>
@@ -8356,6 +8351,9 @@
       <c r="I286" t="s">
         <v>45</v>
       </c>
+      <c r="J286" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -8371,7 +8369,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G287">
         <v>0.9</v>
@@ -8394,7 +8392,7 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G288">
         <v>0.9</v>
@@ -8417,7 +8415,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G289">
         <v>0.9</v>
@@ -8434,22 +8432,19 @@
         <v>73</v>
       </c>
       <c r="C290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I290" t="s">
         <v>45</v>
-      </c>
-      <c r="J290" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -8466,13 +8461,16 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G291">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="s">
         <v>45</v>
+      </c>
+      <c r="J291" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
@@ -8489,7 +8487,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G292">
         <v>0.1</v>
@@ -8512,7 +8510,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G293">
         <v>0.1</v>
@@ -8535,7 +8533,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G294">
         <v>0.1</v>
@@ -8558,7 +8556,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G295">
         <v>0.1</v>
@@ -8581,7 +8579,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G296">
         <v>0.1</v>
@@ -8604,7 +8602,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G297">
         <v>0.1</v>
@@ -8627,7 +8625,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G298">
         <v>0.1</v>
@@ -8650,7 +8648,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G299">
         <v>0.1</v>
@@ -8673,7 +8671,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G300">
         <v>0.1</v>
@@ -8696,7 +8694,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G301">
         <v>0.1</v>
@@ -8719,7 +8717,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G302">
         <v>0.1</v>
@@ -8742,7 +8740,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G303">
         <v>0.1</v>
@@ -8765,7 +8763,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G304">
         <v>0.1</v>
@@ -8788,7 +8786,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G305">
         <v>0.1</v>
@@ -8811,7 +8809,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G306">
         <v>0.1</v>
@@ -8834,7 +8832,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G307">
         <v>0.1</v>
@@ -8857,7 +8855,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G308">
         <v>0.1</v>
@@ -8880,7 +8878,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G309">
         <v>0.1</v>
@@ -8903,7 +8901,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G310">
         <v>0.1</v>
@@ -8926,7 +8924,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G311">
         <v>0.1</v>
@@ -8949,7 +8947,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G312">
         <v>0.1</v>
@@ -8972,7 +8970,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G313">
         <v>0.1</v>
@@ -8995,7 +8993,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G314">
         <v>0.1</v>
@@ -9018,7 +9016,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G315">
         <v>0.1</v>
@@ -9041,7 +9039,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G316">
         <v>0.1</v>
@@ -9064,7 +9062,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G317">
         <v>0.1</v>
@@ -9087,7 +9085,7 @@
         <v>39</v>
       </c>
       <c r="E318">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G318">
         <v>0.1</v>
@@ -9110,7 +9108,7 @@
         <v>39</v>
       </c>
       <c r="E319">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G319">
         <v>0.1</v>
@@ -9119,11 +9117,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K432" s="2"/>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" t="s">
+        <v>73</v>
+      </c>
+      <c r="C320" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" t="s">
+        <v>39</v>
+      </c>
+      <c r="E320">
+        <v>2019</v>
+      </c>
+      <c r="G320">
+        <v>0.1</v>
+      </c>
+      <c r="I320" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K433" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L853" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo/conversion/chp/CHE_convchp_waste.xlsx
+++ b/data/zenodo/conversion/chp/CHE_convchp_waste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84AAF88-5290-7449-B556-FEADC7F16A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81983F9C-1E41-074D-BD6C-530CFC5E1384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,9 +368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -408,9 +408,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,26 +443,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,26 +478,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -691,8 +657,8 @@
   <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="5" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G262" sqref="G261:G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7771,7 +7737,7 @@
         <v>1990</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I261" t="s">
         <v>45</v>
@@ -8464,7 +8430,7 @@
         <v>1990</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I291" t="s">
         <v>45</v>
